--- a/Final_Assignment/kb_articles/AAA_index.xlsx
+++ b/Final_Assignment/kb_articles/AAA_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>title</t>
   </si>
@@ -28,6 +28,15 @@
     <t>path</t>
   </si>
   <si>
+    <t>validation_query</t>
+  </si>
+  <si>
+    <t>rephrased_validation_query</t>
+  </si>
+  <si>
+    <t>validation_question</t>
+  </si>
+  <si>
     <t>Agarwal et al - 2021 - neural additive models interpretable machine learning with neural nets - NeurIPS-2021-</t>
   </si>
   <si>
@@ -55,21 +64,12 @@
     <t>Credit scroring models v2.0 submitted IRFA</t>
   </si>
   <si>
-    <t>Dessain - 2024 - Credit scoring performance metrics</t>
-  </si>
-  <si>
     <t>Dolphin et al. - Stock Embeddings Learning distributed representations for financial assets - arXiv 2022</t>
   </si>
   <si>
     <t>Dushimimana et al - 2020 - Use of machine learning techniques to create a credit score model for airtime loans</t>
   </si>
   <si>
-    <t>Dushimimana et al. - 2020 - Use of machine learning techniques to create a credit score model for airtime loans</t>
-  </si>
-  <si>
-    <t>Explainable Boosting Machine - Interpret ML</t>
-  </si>
-  <si>
     <t>Gupta - GPTInvestAR enhancing stock investment strategies - arXiv 2023</t>
   </si>
   <si>
@@ -82,9 +82,6 @@
     <t>Hossain et al - Designing fairly fair classifiers via economic fairness notions</t>
   </si>
   <si>
-    <t>IIF 2019 08 Machine Learning in Credit Risk</t>
-  </si>
-  <si>
     <t>Kim and Cho - 2019 - Predicting repayment of borrows in P2P social lending with Deep dense CNN</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Lee et al - 2021 - Graph CNN credit default prediction</t>
   </si>
   <si>
-    <t>Li - 2022 - Online Loan Default Prediction Model based on Deep NN 2022</t>
-  </si>
-  <si>
     <t>Li et al - TradingGPT multiagent system with layered memory for trading - arXiv 2023</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Nori et al - 2021 - Accuracy, Interpretability, and Differential Privacy via Explainable Boosting - PMLR</t>
   </si>
   <si>
-    <t>Penny Jolliffle - 2001 - a comparison of multivariate outlier detection methods - The Statistician</t>
-  </si>
-  <si>
     <t>Pillai et al - 2019 - Machine Learning Analysis of Mortgage Credit Risk</t>
   </si>
   <si>
@@ -133,6 +124,642 @@
     <t>Yang et al - InvestLM LLM for investment - arXiv 2023</t>
   </si>
   <si>
+    <t xml:space="preserve">
+deep neural networks (dnns) are powerful black-box predictors that have achieved
+impressive performance on a wide variety of tasks. however, their accuracy comes
+at the cost of intelligibility: it is usually unclear how they make their decisions.
+this hinders their applicability to high stakes decision-making domains such as
+healthcare. we propose neural additive models (nams) which combine some of
+the expressivity of dnns with the inherent intelligibility of generalized additive
+models. nams learn a linear combination of neural networks that each attend to a
+single input feature. these networks are trained jointly and can learn arbitrarily
+complex relationships between their input feature and the output. our experiments
+on regression and classification datasets show that nams are more accurate than
+widely used intelligible models such as logistic regression and shallow decision
+trees. they perform similarly to existing state-of-the-art generalized additive
+models in accuracy, but are more flexible because they are based on neural nets
+instead of boosted trees. to demonstrate this, we show how nams can be used
+for multitask learning on synthetic data and on the compas recidivism data due
+to their composability, and demonstrate that the differentiability of nams allows
+them to train more complex interpretable models for covid-19. source code is
+available at neural-additive-models.github.io.
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—machine learning models and artificial intelligence
+algorithms are required to provide powerful predictions to
+support the decision process of operators in the fintech sector,
+characterised by an extensive use of credit scoring models
+and digitalised financial services. in such a context, the model
+predictive accuracy assessment represents a basic requirement.
+on the one hand, literature provides several predictive accuracy
+measures but, on the other hand, these measures are typically
+computationally intensive or are based on subjective criteria.
+in this paper a solution is provided through a novel predictive
+accuracy measure, we called rank graduation accuracy (rga),
+which is based on the distance between the predicted and
+observed ranks of the response variable. the rga presents
+properties which allow to fulfill the need of ensuring reliable
+predictions improving the model predictive accuracy assessment
+in highly complex situations.
+keywords–machine learning models; artificial intelligence-
+based systems; predictive accuracy; credit scoring models.
+i.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+the purpose of this research paper is to propose an approach for calculating the optimal threshold for 
+predictions generated by binomial classification models for credit risk prediction. our approach is considering the cost 
+matrix and cumulative profit chart for setting the threshold value. in the paper we examine the performance of several 
+models trained with homogeneous (random forest, xgboost, etc.) and heterogeneous (stacked ensemble) ensemble 
+classifiers. models are trained on data extracted from lending club website. different evaluation measures are derived 
+to compare and rank the fitted models. further analysis reveals that application of trained models with the set 
+according to the proposed approach threshold leads to significantly reduced default loans ratio and at the same time 
+improves the credit portfolio structure of the peer-to-peer lending platform. we evaluate the models performance and 
+demonstrate that with machine learning models peer-to-peer lending platform can decrease the default loan ratio by 
+8% and generate profit lift of 16%. 
+keywords: machine learning, credit risk prediction, artificial intelligence, peer-to-peer lending, stacked 
+ensemble classifiers  
+jel code: o33 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this study compares the accuracy and efficiency of five different estimation methods for predicting
+financial distress of small and medium-sized enterprises. we apply different methods for a large set of
+financial and non-financial variables, using filter and wrapper selection, to predict bankruptcy up to
+10 years before the event in an open, european economy. our findings show that logistic regression and
+neural networks are superior to other approaches. we document how the cost-return ratio considerably
+affects the location of optimal cut-off points and attainable profit in credit decisions. once a loan
+provider selects a particular prediction model, an effort should be made to find the optimal cut-off score
+to maximize the efficiency of the technique. indeed, this often involves determining several cut-off
+levels where the portfolio of products and services exhibits different cost-return characteristics.
+keywords
+smes; estimation technique;
+variable selection; cut-off;
+cost-return ratio
+jel classification
+g32; g33
+i. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+in recent years, peer-to-peer (p2p) lending has been gaining popularity amongst bor-
+rowers and individual investors. this can mainly be attributed to the easy and quick
+access to loans and the higher possible returns. however, the risk involved in these
+investments is considerable, and for most investors, being nonprofessionals, this
+increases the complexity and the importance of investment decisions. in this study,
+we focus on generating optimal investment decisions to lenders for selecting loans.
+we treat the loan selection process in p2p lending as a portfolio optimization prob-
+lem, with the aim being to select a set of loans that provide a required return while
+minimizing risk. in the process, we use internal rate of return as the measure of
+return. as the starting point of the model, we use machine-learning algorithms to pre-
+dict the default probabilities and calculate expected values for the loans based on his-
+torical data. afterwards, we calculate the distance between loans using (i) default
+probabilities and, as a novel step, (ii) expected value. in the calculations, we utilize
+kernel functions to obtain similarity weights of loans as the input of the optimization
+models. two optimization models are tested and compared on data from the popular
+p2p platform lending club. the results show that using the expected-value frame-
+work yields higher return.
+k e y w o r d s
+expected-value framework, peer-to-peer lending, portfolio optimization
+1
+|
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: in this study, we constructed the credit-scoring model of p2p loans by using several 
+machine learning and artificial neural network (ann) methods, including logistic regression (lr), 
+a support vector machine, a decision tree, random forest, xgboost, lightgbm and 2-layer neural 
+networks. this study explores several hyperparameter settings for each method by performing a grid 
+search and cross-validation to get the most suitable credit-scoring model in terms of training time 
+and test performance. in this study, we get and clean the open p2p loan data from lending club with 
+feature engineering concepts. in order to find significant default factors, we used an xgboost 
+method to pre-train all data and get the feature importance. the 16 selected features can provide 
+economic implications for research about default prediction in p2p loans. besides, the empirical 
+result shows that gradient-boosting decision tree methods, including xgboost and lightgbm, 
+outperform ann and lr methods, which are commonly used for traditional credit scoring. among 
+all of the methods, xgboost performed the best. 
+keywords: p2p lending; credit score; machine learning; artificial neural networks; feature engineering; 
+lending club 
+jel codes: d12, e41, e44, g20 
+304 
+quantitative finance and economics 
+volume 6, issue 2, 303–325. 
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the sheer volume of financial statements
+makes it difficult for humans to access and an-
+alyze a business’s financials. robust numeri-
+cal reasoning likewise faces unique challenges
+in this domain.
+in this work, we focus on
+answering deep questions over financial data,
+aiming to automate the analysis of a large cor-
+pus of financial documents. in contrast to ex-
+isting tasks on general domain, the finance do-
+main includes complex numerical reasoning
+and understanding of heterogeneous represen-
+tations. to facilitate analytical progress, we
+propose a new large-scale dataset, finqa,
+with question-answering pairs over financial
+reports, written by financial experts. we also
+annotate the gold reasoning programs to en-
+sure full explainability. we further introduce
+baselines and conduct comprehensive experi-
+ments in our dataset. the results demonstrate
+that popular, large, pre-trained models fall far
+short of expert humans in acquiring finance
+knowledge and in complex multi-step numer-
+ical reasoning on that knowledge. our dataset
+— the first of its kind — should therefore en-
+able significant, new community research into
+complex application domains. the dataset and
+code are publicly available1.
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+climate-related risks have become a major concern for financial regulators and can pose a significant threat to
+financial stability. in this paper, we first propose a theoretical framework for the transmission of climate risks
+to financial institutions and the financial system. we then estimate the influence of physical and transition
+risks on the european financial system through bank-level and system-wide measures of financial stability. we
+find that scope 3 greenhouse gas emissions, chronic and acute climate risks negatively affect financial stability
+at both the financial institution and system levels. temperature anomalies, heat waves, wildfires and droughts
+are among the most significant risks. as europe warms twice as fast as the rest of the world, our theoretical
+and empirical results urge regulators to mandatorily require the assessment and disclosure of corporate climate
+risks to allow banks to adjust their prudential capital requirements.
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+this study examines the evaluation of machine learning models for credit scoring and probability of 
+default (pd) prediction. we present and analyse the performance metrics used in 152 articles. despite 
+the prevalent use of statistical performance metrics for model assessment and regulatory compliance, 
+our analysis reveals their limitations. our evaluation demonstrates a significant disconnect between 
+these statistical metrics and the financial performance of credit scoring models. this divergence is 
+particularly pronounced as risk tolerance increases. popular metrics such as auroc, accuracy or f1 
+are insufficient for assessing the efficiency of pd prediction algorithms, suffering from poor ability to 
+address three key challenges: class imbalance, the spectrum of risk appetite, and the cost imbalance of 
+prediction errors. 
+to address this, we propose a financial performance-based metric that considers credit risk appetite, 
+loss given default (lgd), and the lender’s regulatory framework. this metric emerges as a robust 
+predictor of model performance on new data, offering a more reliable basis for model evaluation and 
+selection, reshaping lender practices and academic research in credit risk management, and offering 
+insights into regulatory oversight of credit scoring models. 
+keywords: credit risk; machine learning; deep learning; probability of default; performance criteria 
+jel: c45, c53, g11, g17, n2. 
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">—identifying meaningful relationships between the
+price movements of financial assets is a challenging but important
+problem in a variety of financial applications. however with
+recent research, particularly those using machine learning and
+deep learning techniques, focused mostly on price forecasting,
+the literature investigating the modelling of asset correlations has
+lagged somewhat. to address this, inspired by recent successes
+in natural language processing, we propose a neural model for
+training stock embeddings, which harnesses the dynamics of
+historical returns data in order to learn the nuanced relationships
+that exist between financial assets. we describe our approach in
+detail and discuss a number of ways that it can be used in
+the financial domain. furthermore, we present the evaluation
+results to demonstrate the utility of this approach, compared
+to several important benchmarks, in two real-world financial
+analytics tasks.
+index terms—latent representation, embedding, similarity,
+stock market, distributional semantics
+i. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: airtime lending default rates are typically lower than those experienced by banks and
+microfinance institutions (mfis) but are likely to grow as the service is offered more widely. in this
+paper, credit scoring techniques are reviewed, and that knowledge is built upon to create an
+appropriate machine learning model for airtime lending. over three million loans belonging to
+more than 41 thousand customers with a repayment period of three months are analysed. logistic
+regression, decision trees and random forest are evaluated for their ability to classify defaulters
+using several cross-validation approaches and the latter model performed best. when the default
+rate is below 2%, it is better to offer everyone a loan. for higher default rates, the model substantially
+enhances profitability. the model quadruples the tolerable level of default rate for breaking even from
+8% to 32%. nonlinear classification models offer considerable potential for credit scoring, coping
+with higher levels of default and therefore allowing for larger volumes of customers.
+keywords: financial inclusion; credit score; big data; machine learning; airtime
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+annual reports of publicly listed companies contain vital information about
+their financial health which can help assess the potential impact on stock price
+of the firm. these reports are comprehensive in nature, going up to, and some-
+times exceeding, 100 pages. analysing these reports is cumbersome even for a
+single firm, let alone the whole universe of firms that exist. over the years, finan-
+cial experts have become proficient in extracting valuable information from these
+documents relatively quickly. however, this requires years of practice and experi-
+ence. this paper aims to simplify the process of assessing annual reports of all
+the firms by leveraging the capabilities of large language models (llms). the
+insights generated by the llm are compiled in a quant styled dataset and aug-
+mented by historical stock price data. a machine learning model is then trained
+with llm outputs as features. the walkforward test results show promising out-
+performance wrt s&amp;p500 returns. this paper intends to provide a framework for
+future work in this direction. to facilitate this, the code has been released as
+open source∗.
+keywords: chatgpt, llm, stocks, investing, quantitative finance
+∗github repository
+kindly contact to address any inquiries or provide feedback: email, linkedin
+1
+arxiv:2309.03079v1  [q-fin.st]  6 sep 2023
+1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+equalized odds is a statistical notion of fairness in machine learning that ensures
+that classification algorithms do not discriminate against protected groups. we
+extend equalized odds to the setting of cardinality-constrained fair classification,
+where we have a bounded amount of a resource to distribute. this setting coincides
+with classic fair division problems, which allows us to apply concepts from that
+literature in parallel to equalized odds. in particular, we consider the axioms
+of resource monotonicity, consistency, and population monotonicity, all three of
+which relate different allocation instances to prevent paradoxes. using a geometric
+characterization of equalized odds, we examine the compatibility of equalized odds
+with these axioms. we empirically evaluate the cost of allocation rules that satisfy
+both equalized odds and axioms of fair division on a dataset of fico credit scores.
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artificial intelligence (ai)-based models have emerged as powerful tools in financial markets,
+capable of reducing investment risks and aiding in selecting highly profitable stocks by achieving precise
+predictions. this holds immense value for investors, as it empowers them to make data-driven decisions.
+identifying current and future trends in multi-class forecasting techniques employed within financial
+markets, particularly profitability analysis as an evaluation metric is important. the review focuses on
+examining stud-ies conducted between 2018 and 2023, sourced from three prominent academic databases.
+a meticulous three-stage approach was employed, encompassing the systematic planning, conduct, and
+analysis of the se-lected studies. specifically, the analysis emphasizes technical assessment, profitability
+analysis, hybrid mod-eling, and the type of results generated by models. articles were shortlisted based on
+inclusion and exclusion criteria, while a rigorous quality assessment through ten quality criteria questions,
+utilizing a likert-type scale was employed to ensure methodological robustness. we observed that ensemble
+and hybrid models with long short-term memory (lstm) and support vector machines (svm) are being
+more adopted for financial trends and price prediction. moreover, hybrid models employing ai algorithms
+for feature engineering have great potential at par with ensemble techniques. most studies only employ
+performance metrics and lack utilization of profitability metrics or investment or trading strategy (simulated
+or real-time). similarly, research on multi-class or output is severely lacking in financial forecasting and can
+be a good avenue for future research.
+index terms
+artificial intelligence, financial forecasting, deep learning, stock market analysis,
+convolution neural network, cryptocurrency.
+i. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the past decade has witnessed a rapid growth of research on fair-
+ness in machine learning. in contrast, fairness has been formally
+studied for almost a century in microeconomics in the context of
+resource allocation, during which many general-purpose notions
+of fairness have been proposed. this paper explore the applicability
+of two such notions — envy-freeness and equitability — in machine
+learning. we propose novel relaxations of these fairness notions
+which apply to groups rather than individuals, and are compelling
+in a broad range of settings. our approach provides a unifying
+framework by incorporating several recently proposed fairness
+definitions as special cases. we provide generalization bounds for
+our approach, and theoretically and experimentally evaluate the
+tradeoff between loss minimization and our fairness guarantees.
+ccs concepts
+• computing methodologies → machine learning; • applied
+computing → economics.
+keywords
+group envy-freeness, group equitability, fairness, generalization
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+in peer‐to‐peer lending, it is important to predict the repayment of the borrower to
+reduce the lender's financial loss. however, it is difficult to design a powerful feature
+extractor for predicting the repayment as user and transaction data continue to
+increase. convolutional neural networks automatically extract useful features from
+big data, but they use only high‐level features; hence, it is difficult to capture a variety
+of representations. in this study, we propose a deep dense convolutional network for
+repayment prediction in social lending, which maintains the borrower's semantic
+information and obtains a good representation by automatically extracting important
+low‐ and high‐level features simultaneously. we predict the repayment of the bor-
+rower by learning discriminative features depending on the loan status. experimental
+results on the lending club dataset show that our model is more effective than other
+methods. a fivefold cross‐validation is performed to run the experiments.
+keywords
+deep learning, dense convolutional networks, peer‐to‐peer lending, repayment prediction
+1
+|
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: peer-to-peer lending (p2p lending) has proliferated in recent years thanks to fintech and big
+data advancements. however, p2p lending platforms are not tightly governed by relevant laws yet,
+as their development speed has far exceeded that of regulations. therefore, p2p lending operations
+are still subject to risks. this paper proposes prediction models to mitigate the risks of default
+and asymmetric information on p2p lending platforms. specifically, we designed sophisticated
+procedures to pre-process mass data extracted from lending club in 2018 q3–2019 q2. after that,
+three statistical models, namely, logistic regression, bayesian classifier, and linear discriminant
+analysis (lda), and five ai models, namely, decision tree, random forest, lightgbm, artificial
+neural network (ann), and convolutional neural network (cnn), were utilized for data analysis.
+the loan statuses of lending club’s customers were rationally classified. to evaluate the models,
+we adopted the confusion matrix series of metrics, auc-roc curve, kolmogorov–smirnov chart
+(ks), and student’s t-test. empirical studies show that lightgbm produces the best performance
+and is 2.91% more accurate than the other models, resulting in a revenue improvement of nearly
+usd 24 million for lending club. student’s t-test proves that the differences between models are
+statistically significant.
+keywords: p2p lending default prediction; data processing; ai model; statistical model
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   
+machine learning models have been actively utilized to quantitatively predict the default probability based on 
+the personal information obtained from loan applicants. although the relationship between loan applicants is 
+receiving attention as important soft information, only the simple individual network features and their relation 
+have been reflected in the prediction model. in this study, we propose a graph convolutional network (gcn)- 
+based credit default prediction model, which can reflect nonlinear relationships between borrower’s attributes 
+and default risk as well as high-order relationships between the borrowers. three types of information pertaining 
+to the borrowers are separately employed for their relations, namely loan information, credit history information, 
+and soft information. we compare our gcn model to baseline models using the data from an online peer-to-peer 
+lending platform. the results show that our approach outperforms existing classification models and identifies 
+the relative contribution of input attributes.   
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+large language models (llms), prominently highlighted by the recent evolution in the generative
+pre-trained transformers (gpt) series, have displayed significant prowess across various domains,
+such as aiding in healthcare diagnostics and curating analytical business reports. the efficacy of
+gpts lies in their ability to decode human instructions, achieved through comprehensively processing
+historical inputs as an entirety within their memory system. yet, the memory processing of gpts
+does not precisely emulate the hierarchical nature of human memory, which is categorized into long,
+medium, and short-term layers. this can result in llms struggling to prioritize immediate and
+critical tasks efficiently. to bridge this gap, we introduce an innovative llm multi-agent framework
+endowed with layered memories. we assert that this framework is well-suited for stock and fund
+trading, where the extraction of highly relevant insights from hierarchical financial data is imperative
+to inform trading decisions. within this framework, one agent organizes memory into three distinct
+layers, each governed by a custom decay mechanism, aligning more closely with human cognitive
+processes. agents can also engage in inter-agent communication and debate. in financial trading
+contexts, llms serve as the decision core for trading agents, leveraging their layered memory system
+to integrate multi-source historical actions and market insights. this equips them to navigate financial
+changes, formulate strategies, and debate with peer agents about investment decisions. another
+standout feature of our approach is to enable agents with individualized trading characters, which
+enrich the diversity of their highlighted essential memories and improve decision-making robustness.
+by leveraging agents’ layered memory processing and consistent information interchange, the entire
+trading system demonstrates augmented adaptability to historical trades and real-time market cues.
+this synergistic approach guarantees premier automated trading with heightened execution accuracy.
+keywords financial ai, multi-modal learning, trading algorithms, deep learning, financial technology
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this study examines whether the evaluation of a bankruptcy prediction model
+should take into account the total cost of misclassification. for this purpose, we
+introduce and apply a validity measure in credit scoring that is based on the
+total cost of misclassification. specifically, we use comprehensive data from
+the annual financial statements of a sample of german companies and analyze
+the total cost of misclassification by comparing a generalized linear model and
+a generalized additive model with regard to their ability to predict a company's
+probability of default. on the basis of these data, the validity measure we intro-
+duce shows that, compared to generalized linear models, generalized additive
+models can reduce substantially the extent of misclassification and the total
+cost that this entails. the validity measure we introduce is informative and
+justifies the argument that generalized additive models should be preferred,
+although such models are more complex than generalized linear models. we
+conclude that to balance a model's validity and complexity, it is necessary to
+take into account the total cost of misclassification.
+keywords
+bankruptcy prediction, cost of misclassification, generalized additive model, generalized linear model
+1 |
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this paper presents a multilayer and parallel-connected graph convolu-
+tional networks (mpgcns) method to explore whether a debtor–creditor 
+relationship network helps to detect the default risk in peer-to-peer (p2p) 
+lending. results show that: (1) the debtor–creditor relationship network 
+reflects lenders’ risk preference and borrowers’ successful loan information. 
+(2) the proposed mpgcns method can detect default risk accurately. 
+therefore, considering the structure of the debtor–creditor relationship 
+network is helpful for p2p lending regulators and government supervisors 
+to control risk.
+keywords 
+p2p; graph convolutional 
+networks; default; debtor– 
+creditor relationship 
+networks
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+big data and the internet financial sector tremendously developed in the 21st century. the national emphasis on
+this field has also gradually improved. peer-to-peer (p2p) is an innovative mode of borrowing that is a powerful
+complement to the traditional financial industry. the projected default rate on credit is an absolute prerequisite
+for guaranteeing the proper operation of related financial projects or platforms. in this paper, we use ‘multi-
+observation’ and ‘multi-dimensional’ data cleaning method and apply the modern machine learning algorithms
+lightgbm in asia at the end of 2016 and xgboost, which are based on real p2p transaction data from lending
+club. the default risk of loans in the platform is strongly and innovatively predicted. and the results of different
+methods are compared. furthermore, we observe that the lightgbm algorithm based on multiple observational
+data set classification prediction results is the best. the average performance rate of the historical transaction
+data of the lending club platform rose by 1.28 percentage points, which reduced loan defaults by approximately
+$117 million. finally, with respect to the influencing factors of the default rate, suggested developments for the
+lending club and other p2p platforms are provided as is the suggested direction of other countries’ development
+in this field.
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+interpretml is an open-source python package which exposes machine learning inter-
+pretability algorithms to practitioners and researchers. interpretml exposes two types of
+interpretability – glassbox, which are machine learning models designed for interpretabil-
+ity (ex: linear models, rule lists, generalized additive models), and blackbox explainability
+techniques for explaining existing systems (ex: partial dependence, lime). the package
+enables practitioners to easily compare interpretability algorithms by exposing multiple
+methods under a unified api, and by having a built-in, extensible visualization platform.
+interpretml also includes the first implementation of the explainable boosting machine, a
+powerful, interpretable, glassbox model that can be as accurate as many blackbox models.
+the mit licensed source code can be downloaded from github.com/microsoft/interpret.
+keywords:
+interpretability, explainable boosting machine, glassbox, blackbox
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+we show that adding differential privacy to
+explainable boosting machines (ebms),
+a
+recent method for training interpretable ml
+models, yields state-of-the-art accuracy while
+protecting privacy. our experiments on multiple
+classification and regression datasets show
+that dp-ebm models suffer surprisingly little
+accuracy loss even with strong differential privacy
+guarantees. in addition to high accuracy, two
+other benefits of applying dp to ebms are:
+a) trained models provide exact global and
+local interpretability, which is often important in
+settings where differential privacy is needed; and
+b) the models can be edited after training without
+loss of privacy to correct errors which dp noise
+may have introduced.
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">—in 2008, the us experienced the worst financial
+crisis succeeding the great depression of the 1930s. a recession
+fueled by an influx of poorly underwritten mortgages, in which
+a high percentage of ”less credit-worthy” borrowers defaulted
+on their mortgage payments. to date, the market has recovered
+from the collapse but we must avoid the pitfalls of the previous
+market meltdown. greed and over zealous assumptions fueled
+the 2008 crisis and it is imperative that bank underwriters
+properly assess risks with the assistance of newer technologies.
+in this paper we utilize machine learning techniques to predict
+the approval or denial of a mortgage applicant. the mortgage
+decision will be determined by a two-tier machine learning model
+that examines micro and macro risk exposures. we performed
+comparative analysis using logistic regression, random forest,
+adaboost optimizer, and deep neural network. logistic regression
+provided optimal results and thus the decision model. our model
+currently tests at an accuracy level of 85.85% and f1 score of
+0.87 using logistic regression. this technology will offer a unique
+perspective and add value to banking risk models.
+index terms—machine learning model, mortgage credit
+risk, logistic regression, random forest classifier, deep neural
+network, classification and regression trees, gdp, unemploy-
+ment, home mortgage disclosure act, the housing and eco-
+nomic recovery act (hera).
+i. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+modeling loss in the case of default is a crucial task for financial institutions to support the decision 
+making process in the risk management framework. it has become an inevitable part of modern debt 
+collection strategies to keep promising loans on the banking book and to write off those that are not 
+expected to be recovered at a satisfactory level. research tends to model loss given default directly or 
+to decompose it based on the dependent variable distribution. such an approach neglects the patterns 
+which exist beneath the recovery process and are mainly driven by the activities made by collectors 
+in the event of default. to overcome this problem, we propose a decomposition of the lgd model that 
+integrates cures, partial recoveries, and write-offs into one equation, defined based on common collection 
+strategies. furthermore, various levels of data aggregation are applied to each component to reflect the 
+domain that influences each stage of the default process. to assess the robustness of our approach, we 
+propose a comparison with two benchmark models on two different datasets. we assess the goodness of 
+fit on out-of-sample data and show that the proposed decomposition is more effective than state-of-the- 
+art methods, maintaining a strong level of interpretability. 
+© 2020 elsevier b.v. all rights reserved. 
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+knowing which factors are significant in credit rating assignment leads to better decision-making. however, the focus of the
+literature thus far has been mostly on structured data, and fewer studies have addressed unstructured or multi-modal datasets. in
+this paper, we present an analysis of the most effective architectures for the fusion of deep learning models for the prediction
+of company credit rating classes, by using structured and unstructured datasets of different types. in these models, we tested
+different combinations of fusion strategies with different deep learning models, including cnn, lstm, gru, and bert. we
+studied data fusion strategies in terms of level (including early and intermediate fusion) and techniques (including concatenation
+and cross-attention). our results show that a cnn-based multi-modal model with a hybrid fusion strategy outperformed other
+multi-modal techniques. in addition, by comparing simple architectures with more complex ones, we found that more sophisticated
+deep learning models do not necessarily produce the highest performance; however, if attention-based models are producing the
+best results, cross-attention is necessary as a fusion strategy. finally, our comparison of rating agencies on short-, medium-, and
+long-term performance shows that moody’s credit ratings outperform those of other agencies like standard &amp; poor’s and fitch
+ratings.
+keywords: fusion strategies, deep learning, credit ratings, multi-modality, bert, cnn, cross-attention, earning call transcripts.
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+news 
+summary 
+generation 
+is 
+an 
+important task in the field of intelligence 
+analysis, which can provide accurate and 
+comprehensive information to 
+help 
+people better understand and respond to 
+complex real-world events. however, 
+traditional news summary generation 
+methods face some challenges, which are 
+limited by the model itself and the 
+amount of training data, as well as the 
+influence of text noise, making it difficult 
+to 
+generate 
+reliable 
+information 
+accurately. in this paper, we propose a 
+new paradigm for news summary 
+generation using llm with powerful 
+natural language understanding and 
+generative capabilities. we use llm to 
+extract multiple structured event patterns 
+from the events contained in news 
+paragraphs, evolve the event pattern 
+population with genetic algorithm, and 
+select the most adaptive event pattern to 
+input into the llm to generate news 
+summaries. a news summary generator 
+(nsg) is designed to select and evolve 
+the event pattern populations and 
+generate 
+news 
+summaries. 
+the 
+experimental results show that the news 
+summary generator is able to generate 
+accurate and reliable news summaries 
+with some generalization ability. 
+1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+we present a new financial domain large lan-
+guage model, investlm, tuned on llama-65b
+(touvron et al., 2023), using a carefully curated
+instruction dataset related to financial invest-
+ment. inspired by less-is-more-for-alignment
+(zhou et al., 2023), we manually curate a
+small yet diverse instruction dataset, covering
+a wide range of financial related topics, from
+chartered financial analyst (cfa) exam ques-
+tions to sec filings to stackexchange quan-
+titative finance discussions. investlm shows
+strong capabilities in understanding financial
+text and provides helpful responses to invest-
+ment related questions. financial experts, in-
+cluding hedge fund managers and research
+analysts, rate investlm’s response as com-
+parable to those of state-of-the-art commer-
+cial models (gpt-3.5, gpt-4 and claude-2).
+zero-shot evaluation on a set of financial nlp
+benchmarks demonstrates strong generalizabil-
+ity. from a research perspective, this work sug-
+gests that a high-quality domain specific llm
+can be tuned using a small set of carefully cu-
+rated instructions on a well-trained foundation
+model, which is consistent with the superfi-
+cial alignment hypothesis (zhou et al., 2023).
+from a practical perspective, this work devel-
+ops a state-of-the-art financial domain llm
+with superior capability in understanding fi-
+nancial texts and providing helpful investment
+advice, potentially enhancing the work effi-
+ciency of financial professionals. we release
+the model parameters to the research commu-
+nity1.
+1
+</t>
+  </si>
+  <si>
     <t>kb_articles\Agarwal et al - 2021 - neural additive models interpretable machine learning with neural nets - NeurIPS-2021-.pdf</t>
   </si>
   <si>
@@ -160,21 +787,12 @@
     <t>kb_articles\Credit scroring models v2.0 submitted IRFA.pdf</t>
   </si>
   <si>
-    <t>kb_articles\Dessain - 2024 - Credit scoring performance metrics.pdf</t>
-  </si>
-  <si>
     <t>kb_articles\Dolphin et al. - Stock Embeddings Learning distributed representations for financial assets - arXiv 2022.pdf</t>
   </si>
   <si>
     <t>kb_articles\Dushimimana et al - 2020 - Use of machine learning techniques to create a credit score model for airtime loans.pdf</t>
   </si>
   <si>
-    <t>kb_articles\Dushimimana et al. - 2020 - Use of machine learning techniques to create a credit score model for airtime loans.pdf</t>
-  </si>
-  <si>
-    <t>kb_articles\Explainable Boosting Machine - Interpret ML.pdf</t>
-  </si>
-  <si>
     <t>kb_articles\Gupta - GPTInvestAR enhancing stock investment strategies - arXiv 2023.pdf</t>
   </si>
   <si>
@@ -187,9 +805,6 @@
     <t>kb_articles\Hossain et al - Designing fairly fair classifiers via economic fairness notions.pdf</t>
   </si>
   <si>
-    <t>kb_articles\IIF 2019 08 Machine Learning in Credit Risk.pdf</t>
-  </si>
-  <si>
     <t>kb_articles\Kim and Cho - 2019 - Predicting repayment of borrows in P2P social lending with Deep dense CNN.pdf</t>
   </si>
   <si>
@@ -199,9 +814,6 @@
     <t>kb_articles\Lee et al - 2021 - Graph CNN credit default prediction.pdf</t>
   </si>
   <si>
-    <t>kb_articles\Li - 2022 - Online Loan Default Prediction Model based on Deep NN 2022.pdf</t>
-  </si>
-  <si>
     <t>kb_articles\Li et al - TradingGPT multiagent system with layered memory for trading - arXiv 2023.pdf</t>
   </si>
   <si>
@@ -220,9 +832,6 @@
     <t>kb_articles\Nori et al - 2021 - Accuracy, Interpretability, and Differential Privacy via Explainable Boosting - PMLR.pdf</t>
   </si>
   <si>
-    <t>kb_articles\Penny Jolliffle - 2001 - a comparison of multivariate outlier detection methods - The Statistician.pdf</t>
-  </si>
-  <si>
     <t>kb_articles\Pillai et al - 2019 - Machine Learning Analysis of Mortgage Credit Risk.pdf</t>
   </si>
   <si>
@@ -236,6 +845,283 @@
   </si>
   <si>
     <t>kb_articles\Yang et al - InvestLM LLM for investment - arXiv 2023.pdf</t>
+  </si>
+  <si>
+    <t>neural additive models (nams) combine expressivity of dnns with inherent intelligibility of generalized additive models . nams learn a linear combination of neural networks that each attend to a single input feature</t>
+  </si>
+  <si>
+    <t>the model predictive accuracy assessment represents a basic requirement . on the one hand, literature provides several predictive accuracy measures but, on the other hand, these measures are typically computationally intensive or are based on subjective criteria .</t>
+  </si>
+  <si>
+    <t>our approach is considering the cost matrix and cumulative profit chart for setting the threshold value . in the paper we examine the performance of several models trained with homogeneous (random forest, xgboost, etc.)</t>
+  </si>
+  <si>
+    <t>this study compares the accuracy and efficiency of five different estimation methods . we apply different methods for a large set of financial and non-financial variables to predict bankruptcy up to 10 years before the event in an open, european</t>
+  </si>
+  <si>
+    <t>in recent years, peer-to-peer lending has been gaining popularity amongst individual investors . this can be attributed to the easy and quick access to loans and the higher possible returns . for most investors, being non</t>
+  </si>
+  <si>
+    <t>in this study, we constructed the credit-scoring model of p2p loans using several machine learning and artificial neural networks (ann) methods . this study explores several hyperparameter settings for each method by performing a</t>
+  </si>
+  <si>
+    <t>robust numeri- cal reasoning faces unique challenges in this domain . we propose a new large-scale dataset, finqa, with question-answering pairs over financial reports, written by financial experts .</t>
+  </si>
+  <si>
+    <t>greenhouse gas emissions, chronic and acute climate risks negatively affect financial stability at both the financial institution and system levels . as europe warms twice as fast as the rest of the world, our theoretical and empirical results urge regulators to mandatori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our evaluation demonstrates a significant disconnect between these statistical metrics and the financial performance of credit scoring models . popular metrics such as auroc, accuracy or f1 are insufficient for assessing the efficiency of pd prediction algorithms </t>
+  </si>
+  <si>
+    <t>the literature investigating the modelling of asset correlations has lagged somewhat . to address this, we propose a neural model for training stock embeddings . we describe our approach in detail and discuss a number of ways that it</t>
+  </si>
+  <si>
+    <t>credit scoring techniques are reviewed to create an appropriate machine learning model for airtime lending . over three million loans belonging to more than 41 thousand customers are analysed . logistic regression, decision trees and random forest are evaluated .</t>
+  </si>
+  <si>
+    <t>annual reports of publicly listed companies contain vital information about their financial health . these reports are comprehensive in nature, going up to, and some- times exceeding, 100 pages . analysing these reports is cumbersome even for a single</t>
+  </si>
+  <si>
+    <t>we extend equalized odds to the setting of cardinality-constrained fair classification . this setting coincides with classic fair division problems . we consider the axioms of resource monotonicity, consistency, and population monoton</t>
+  </si>
+  <si>
+    <t>the review focuses on examining stud-ies conducted between 2018 and 2023 . the analysis emphasizes technical assessment, profitability analysis, hybrid mod-eling, and the type of results generated by models .</t>
+  </si>
+  <si>
+    <t>the past decade has witnessed a rapid growth of research on fairness in machine learning . this paper explore the applicability of two such notions — envy-freeness and equitability . we propose novel relaxations</t>
+  </si>
+  <si>
+    <t>in peertopeer lending, it is important to predict the repayment of the borrower to reduce the lender's financial loss . but it is difficult to design a powerful feature extractor for predicting the repayment as user</t>
+  </si>
+  <si>
+    <t>peer-to-peer lending (p2p lending) has proliferated in recent years thanks to fintech and big data advancements . however, p2- lending platforms are not tightly governed by relevant laws yet .</t>
+  </si>
+  <si>
+    <t>model can reflect nonlinear relationships between borrower’s attributes and default risk as well as high-order relationships between the borrowers . we compare our gcn model to baseline models using the data from an online peer-to</t>
+  </si>
+  <si>
+    <t>large language models (llms) have displayed significant prowess across various domains, such as aiding in healthcare diagnostics and curating analytical business reports . the efficacy of gpts lies in their</t>
+  </si>
+  <si>
+    <t>this study examines whether the evaluation of a bankruptcy prediction model should take into account the total cost of misclassification . the validity measure we introduce is informative and justifies the argument that generalized additive models should be preferred .</t>
+  </si>
+  <si>
+    <t>paper presents a multilayer and parallel-connected graph convolu- tional networks (mpgcns) method to explore whether a debtor–creditor relationship network helps to detect default risk in peer-to-pe</t>
+  </si>
+  <si>
+    <t>peer-to-peer (p2p) is an innovative way of borrowing that is a powerful complement to the traditional financial industry . the projected default rate on credit is an absolute prerequisite for guaranteeing the proper operation of related financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpretml exposes two types of interpretability – glassbox and blackbox explainability techniques for explaining existing systems . package enables practitioners to easily compare interpretability algorithms by exposing multiple methods under a unified api </t>
+  </si>
+  <si>
+    <t xml:space="preserve">our experiments on multiple classification and regression datasets show that dp-ebm models suffer surprisingly little accuracy loss even with strong differential privacy guarantees . the models can be edited after training without loss of privacy to correct errors which </t>
+  </si>
+  <si>
+    <t>in 2008, the us experienced the worst financial crisis succeeding the great depression of the 1930s . greed and over zealous assumptions fueled the 2008 crisis and it is imperative that bank underwriters properly assess risks with the assistance</t>
+  </si>
+  <si>
+    <t>research tends to model loss given default directly or to decompose it based on dependent variable distribution . such an approach neglects the patterns which exist beneath the recovery process . to overcome this problem, we propose a de</t>
+  </si>
+  <si>
+    <t>in this paper, we present an analysis of the most effective architectures for the fusion of deep learning models for the prediction of company credit rating classes . we tested different combinations of fusion strategies in terms of level (including early and intermediate</t>
+  </si>
+  <si>
+    <t>news summary generation is an important task in the field of intelligence analysis, which can provide accurate and comprehensive information to help people better understand and respond to complex real-world events . however, traditional methods face some challenges, which are limited by the</t>
+  </si>
+  <si>
+    <t>we present a new financial domain large lan- guage model, investlm, tuned on llama-65b (touvron et al., 2023), using a carefully curated</t>
+  </si>
+  <si>
+    <t>Sure! Here's a paraphrase of the phrase you provided, using simpler language:
+Neural additive models (NAMs) bring together the best of both worlds: the power of deep neural networks (DNNs) and the interpretable structure of generalized additive models (GAMs). NAMs learn to combine multiple neural networks, each one focusing on a single input feature.</t>
+  </si>
+  <si>
+    <t>The model's accuracy assessment is a fundamental aspect, but there are various factors to consider. While literature offers several measures of predictive accuracy, these methods can be resource-intensive or rely on subjective judgments.</t>
+  </si>
+  <si>
+    <t>Sure! Let me paraphrase that for you.
+Our method looks at the cost matrix and cumulative profit chart to choose the best threshold value. In the paper, we compare the performance of several models that use the same data, like random forest and xgboost.</t>
+  </si>
+  <si>
+    <t>Sure! Here's the study's findings in simpler terms:
+The researchers compared the performance of five different methods for predicting bankruptcy up to 10 years before it happens. They looked at both financial and non-financial variables for a large set of cases, using each method to see which one was most effective and efficient.</t>
+  </si>
+  <si>
+    <t>Sure thing! Here's a paraphrased version of your statement:
+In recent years, more and more individual investors have turned to peer-to-peer lending as a way to access loans and potentially earn higher returns. This popularity can be attributed to the ease and speed with which investors can access loans through this method.</t>
+  </si>
+  <si>
+    <t>Sure, I can help with that! Here's a paraphrased version of your statement:
+In this research, we developed a credit-scoring model for P2P loans using various machine learning and artificial neural network techniques. We investigated different hyperparameter settings for each method by performing an extensive analysis.</t>
+  </si>
+  <si>
+    <t>Robust numerical reasoning experiences specific difficulties in this field, so we present a new extensive dataset, FinQA, with question-answering pairs derived from financial reports written by knowledgeable professionals.</t>
+  </si>
+  <si>
+    <t>Rise in emissions of greenhouse gases and associated acute and chronic climate risks have a negative impact on financial stability at both the institutional and systemic levels. As Europe warms at a faster rate than the rest of the world, our research highlights the need for regulatory measures to address these risks.</t>
+  </si>
+  <si>
+    <t>Our analysis shows that commonly used metrics like AUC, accuracy, or F1 score do not effectively measure the financial performance of credit scoring models.</t>
+  </si>
+  <si>
+    <t>There is a need to improve the modeling of asset correlations, and our proposed approach is to use neural models to train stock embeddings. We will describe our method in detail and explore various aspects of this technique.</t>
+  </si>
+  <si>
+    <t>Sure! Here's the paraphrased version:
+"We examine different credit scoring techniques to develop a suitable machine learning model for airtime lending. Our analysis includes over three million loans from more than 41 thousand customers, using logistic regression, decision trees, and random forest methods."</t>
+  </si>
+  <si>
+    <t>Sure, I can help you with that! 😊
+Annual reports of publicly listed companies provide in-depth information about their financial health, covering a range of topics like revenue, profits, expenses, and assets. These reports can be quite lengthy, sometimes exceeding 100 pages, which can make it challenging to analyze them. However, with the right tools and knowledge, you can easily access and understand the vital information contained within. 📊💡</t>
+  </si>
+  <si>
+    <t>We are working to ensure fairness in classification tasks with limited resources, which is similar to the problem of fair division. We follow three principles: resource monotonicity, consistency, and population monotonicity.</t>
+  </si>
+  <si>
+    <t>Sure! Here's the paraphrase:
+The review looks at studies done between 2018 and 2023 with a focus on technical evaluation, profitability analysis, hybrid modeling, and the types of outcomes produced by these models.</t>
+  </si>
+  <si>
+    <t>Sure! Here's the paraphrased version of the statement you provided:
+"Over the past ten years, there has been a significant increase in research on fairness in machine learning. This paper examines two related concepts, envy-freeness and equitability, and proposes new ways to approach these notions."</t>
+  </si>
+  <si>
+    <t>Sure, I understand. So, in peer-to-peer lending, it's crucial to foresee the borrower's repayment to minimize the lender's financial loss, but creating a robust feature extractor for predicting repayment can be challenging.</t>
+  </si>
+  <si>
+    <t>While p2p lending has grown popular in recent years due to technological advancements, these platforms are not yet heavily regulated by laws.</t>
+  </si>
+  <si>
+    <t>Sure thing! Here's the phrase you provided, rephrased in a way that's easier to understand:
+"Our model can capture complicated relationships between a borrower's characteristics and their risk of defaulting on a loan, as well as connections between multiple borrower characteristics."</t>
+  </si>
+  <si>
+    <t>Sure, I can help you paraphrase that! Here's a rephrased version:
+Large language models (LLMs) have shown impressive abilities across different areas, such as supporting healthcare diagnoses and generating business reports. The strength of LLMs lies in their ability to process and analyze vast amounts of information.</t>
+  </si>
+  <si>
+    <t>Sure! Here's the paraphrased version:
+This study investigates whether considering the total cost of misclassification is necessary when evaluating a bankruptcy prediction model. We propose a new measure of validity that supports the argument that generalized additive models are the better choice.</t>
+  </si>
+  <si>
+    <t>The paper suggests a new approach called "multilayer and parallel-connected graph convolutional networks" (MPGCNs) to evaluate the likelihood of a debtor defaulting on their loans based on the relationships between debtors and creditors in a network.</t>
+  </si>
+  <si>
+    <t>Peer-to-peer lending is a revolutionary method of borrowing that can offer a more efficient alternative to traditional financial institutions. Calculating the projected default rate on credit is a crucial step in ensuring the success of this innovative approach to finance.</t>
+  </si>
+  <si>
+    <t>Sure! Here's a paraphrase of the given phrase:
+Interpretml offers two types of explanations for existing systems - glassbox and blackbox explainability techniques. The package makes it easy to compare different interpretability algorithms by providing a unified API for multiple methods.</t>
+  </si>
+  <si>
+    <t>Our research on various classification and regression datasets reveals that DP-EBM models experience minimal accuracy loss even with robust privacy guarantees. These models can be modified after training without compromising privacy to address errors.</t>
+  </si>
+  <si>
+    <t>Sure! Here's a paraphrase of the given sentence:
+In 2008, the US faced its biggest financial crisis since the Great Depression of the 1930s. The crisis was caused by excessive greed and overly optimistic assumptions, and it's crucial for bank underwriters to carefully assess risks to avoid a similar crisis.</t>
+  </si>
+  <si>
+    <t>Researchers typically model loss given default either by directly considering the dependent variable distribution or by breaking it down into smaller parts. However, this approach overlooks the underlying patterns present in the recovery process. Our proposed approach aims to address this limitation by taking into account these patterns in the recovery process, leading to a more comprehensive understanding of loss given default.</t>
+  </si>
+  <si>
+    <t>Sure thing! Here's the paraphrased version of your statement:
+In this study, we investigate the top-performing architectures for fusing deep learning models to forecast company credit rating classes. We evaluated a variety of fusion strategies at different levels (early and intermediate).</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to help! Here's a paraphrased version of your statement:
+"Summary generation for news articles is crucial for intelligence analysis, as it allows for a more comprehensive and accurate understanding of complex events. However, conventional methods face some limitations."</t>
+  </si>
+  <si>
+    <t>📝 We've developed a new language model for financial domains, called InvestLM. It's been fine-tuned on a large dataset called llama-65b, which has been specially selected for its relevance to financial topics.</t>
+  </si>
+  <si>
+    <t>What features does the linear combination of neural networks in Neural Additive Models (NAMs) attend to?</t>
+  </si>
+  <si>
+    <t>What are some of the commonly used predictive accuracy measures in machine learning, and what are their limitations?</t>
+  </si>
+  <si>
+    <t>What is the purpose of using a cost matrix and cumulative profit chart in setting the threshold value for model performance evaluation?</t>
+  </si>
+  <si>
+    <t>Which estimation method showed the highest accuracy in predicting bankruptcy for non-financial variables?</t>
+  </si>
+  <si>
+    <t>What are the potential risks associated with peer-to-peer lending that individual investors should be aware of?</t>
+  </si>
+  <si>
+    <t>Which specific hyperparameter settings did you explore for each machine learning and ANN method in your study?</t>
+  </si>
+  <si>
+    <t>"What specific challenges in numerical reasoning does the domain of financial reporting face, according to the given sentence?"</t>
+  </si>
+  <si>
+    <t>What specific risks do greenhouse gas emissions pose to financial stability, and how do these risks affect financial institutions and the financial system as a whole?</t>
+  </si>
+  <si>
+    <t>What specific financial performance metrics would you recommend using instead of AUC, accuracy, or F1 score to evaluate the efficiency of predictive modeling algorithms in the context of credit scoring?</t>
+  </si>
+  <si>
+    <t>What specific approaches do you propose in your neural model for training stock embeddings to address the lag in the literature on asset correlation modeling?</t>
+  </si>
+  <si>
+    <t>Which machine learning algorithm was found to be the most accurate in predicting airtime lending defaults among the three evaluated (logistic regression, decision trees, and random forest)?</t>
+  </si>
+  <si>
+    <t>What specific information in annual reports of publicly listed companies do you think is the most critical to assess their financial health?</t>
+  </si>
+  <si>
+    <t>What specific approach do you propose for extending equalized odds to cardinality-constrained fair classification, and how does it relate to classic fair division problems?</t>
+  </si>
+  <si>
+    <t>What specific type of results did the hybrid models generate, according to the analysis?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of a situation where envy-freeness and equitability might be important in machine learning, and how these notions might be used to improve fairness in that situation?</t>
+  </si>
+  <si>
+    <t>Sure, I understand. Can you tell me more about the current feature extractor you are using, and what specific challenges you are facing when it comes to predicting repayment?</t>
+  </si>
+  <si>
+    <t>What specific challenges do you anticipate for p2p lending platforms in the absence of tight governance, and how might these challenges be addressed?</t>
+  </si>
+  <si>
+    <t>Can you tell me more about the high-order relationships between borrowers that the GCN model can capture, and how they differ from the baseline models?</t>
+  </si>
+  <si>
+    <t>What specific tasks or applications have you noticed large language models (LLMs) performing particularly well in, and what do you think is the main reason for their success in these areas?</t>
+  </si>
+  <si>
+    <t>What is the specific term used to describe the evaluation of a bankruptcy prediction model in this study?</t>
+  </si>
+  <si>
+    <t>What specific aspect of the paper's approach to detecting default risk in peer-to-peer lending networks do you want to know more about?</t>
+  </si>
+  <si>
+    <t>What are the potential benefits of using peer-to-peer (p2p) lending platforms for individuals and small businesses, and how do they compare to traditional lending methods?</t>
+  </si>
+  <si>
+    <t>What specific features or functionalities does interpretml offer for comparing interpretability algorithms?</t>
+  </si>
+  <si>
+    <t>What specific type of errors can be corrected in the model after training without losing privacy guarantees?</t>
+  </si>
+  <si>
+    <t>What specific risks do you think bank underwriters should assess more carefully to prevent a similar financial crisis from happening again?</t>
+  </si>
+  <si>
+    <t>"What specific patterns in the recovery process do you believe research tends to neglect, and how does your proposed approach aim to address these patterns?"</t>
+  </si>
+  <si>
+    <t>What specific fusion strategies did you consider for the prediction of company credit rating classes, and why did you choose those particular strategies?</t>
+  </si>
+  <si>
+    <t>Sure, I'll help you with that! So, you want to know about the challenges of traditional methods for news summary generation in intelligence analysis. Can you tell me a bit more about that?</t>
+  </si>
+  <si>
+    <t>What specific features of the "investlm" model were tuned on the "llama-65b" dataset, and how did this tuning improve the model's performance compared to previous versions?</t>
   </si>
 </sst>
 </file>
@@ -593,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,390 +1498,681 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>11</v>
-      </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Assignment/kb_articles/AAA_index.xlsx
+++ b/Final_Assignment/kb_articles/AAA_index.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\VLERICK\NLP\vlerick-mai-nlp-2023\Final_Assignment\kb_articles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E29CC-93BE-4658-BDD5-76C4CD9B451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1127,8 +1133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,13 +1197,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1235,7 +1249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1269,6 +1283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1303,9 +1318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,14 +1494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="106.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="180.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1580,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1626,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1649,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1646,7 +1672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1669,7 +1695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1692,7 +1718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1741,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1810,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1856,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1879,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1925,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1994,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +2017,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2040,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2060,7 +2086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2083,7 +2109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2106,7 +2132,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2129,7 +2155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
